--- a/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
+++ b/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
@@ -122,7 +122,7 @@
     <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT-1st</t>
   </si>
   <si>
-    <t>435p</t>
+    <t>4mm4</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
